--- a/src/text/Errornote.xlsx
+++ b/src/text/Errornote.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Error Note</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,16 @@
   <si>
     <t>리턴타입이 기본형 자료형이 아닐때 바로  BoardVO라고 쓰면 안되고 경로를 자세히 입력해주어야 한다
 resultType="kr.green.test.vo.BoardVO"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type Status Report
+Message Request method 'POST' not supported
+Description The method received in the request-line is known by the origin server but not supported by the target resource.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post 방식 메서드 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +574,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1516,6 +1529,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="15" spans="2:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/text/Errornote.xlsx
+++ b/src/text/Errornote.xlsx
@@ -102,20 +102,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type Exception Report
-Message Request processing failed; nested exception is org.springframework.jdbc.BadSqlGrammarException:
-Description The server encountered an unexpected condition that prevented it from fulfilling the request.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sql 속성명과 spring 속성명이 달라서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컨트롤러에 메서드 생성후 @RequestMapping(value="signin, Method=RequestMethod.GET) 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>컨트롤러에 해당 jsp가 없어서 발생</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,12 +115,6 @@
   </si>
   <si>
     <t>mapper에서 오타 오류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type Exception Report
-Message Request processing failed; nested exception is org.apache.ibatis.binding.BindingException: Invalid bound statement (not found): kr.green.test.dao.MemberDAO.getEmail
-Description The server encountered an unexpected condition that prevented it from fulfilling the request.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -306,28 +290,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type Exception Report
-Message Request processing failed; nested exception is java.lang.NullPointerException
-Description The server encountered an unexpected condition that prevented it from fulfilling the request.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">NullPointerException 객체정보를 제대로 받아오지 못해서 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyBatisSystemException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> @anotation 확인
+ @Autowired 는 하나의 객체만 선언 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql문의 조건식 맞게 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TooManyResultsException:
+데이터베이스에서 가져오는 정보가 많아서 리턴타입과 일치하지 않을때 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return 경로 설정 오류</t>
+  </si>
+  <si>
+    <t>java.lang.String cannot be cast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mapper의 resultType 경로설정 오류
+매개변수가 두가지 이상일때 VO로 설정
+resultType="kr.green.test.vo.MemberVO"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리턴타입이 기본형 자료형이 아닐때 바로  BoardVO라고 쓰면 안되고 경로를 자세히 입력해주어야 한다
+resultType="kr.green.test.vo.BoardVO"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post 방식 메서드 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨트롤러에 메서드 생성후 
+@RequestMapping(value="signin, Method=RequestMethod.GET) 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type Exception Report
 Message Request processing failed; nested exception is org.mybatis.spring.MyBatisSystemException: nested exception is org.apache.ibatis.binding.BindingException: Parameter 'id' not found. Available parameters are [arg1, arg0, param1, param2]
 Description The server encountered an unexpected condition that prevented it from fulfilling the request.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MyBatisSystemException</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> @anotation 확인
- @Autowired 는 하나의 객체만 선언 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sql문의 조건식 맞게 설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type Exception Report
 Message Request processing failed; nested exception is org.mybatis.spring.MyBatisSystemException: nested exception is org.apache.ibatis.exceptions.TooManyResultsException: Expected one result (or null) to be returned by selectOne(), but found: 3
 Description The server encountered an unexpected condition that prevented it from fulfilling the request.
@@ -375,36 +385,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TooManyResultsException:
-데이터베이스에서 가져오는 정보가 많아서 리턴타입과 일치하지 않을때 발생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return 경로 설정 오류</t>
-  </si>
-  <si>
-    <t>java.lang.String cannot be cast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mapper의 resultType 경로설정 오류
-매개변수가 두가지 이상일때 VO로 설정
-resultType="kr.green.test.vo.MemberVO"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리턴타입이 기본형 자료형이 아닐때 바로  BoardVO라고 쓰면 안되고 경로를 자세히 입력해주어야 한다
-resultType="kr.green.test.vo.BoardVO"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type Status Report
 Message Request method 'POST' not supported
 Description The method received in the request-line is known by the origin server but not supported by the target resource.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post 방식 메서드 구현</t>
+    <t>Type Exception Report
+Message Request processing failed; nested exception is org.springframework.jdbc.BadSqlGrammarException:
+Description The server encountered an unexpected condition that prevented it from fulfilling the request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type Exception Report
+Message Request processing failed; nested exception is org.apache.ibatis.binding.BindingException: Invalid bound statement (not found): kr.green.test.dao.MemberDAO.getEmail
+Description The server encountered an unexpected condition that prevented it from fulfilling the request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type Exception Report
+Message Request processing failed; nested exception is java.lang.NullPointerException
+Description The server encountered an unexpected condition that prevented it from fulfilling the request.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,9 +575,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,99 +673,6 @@
         <a:xfrm>
           <a:off x="333375" y="1057275"/>
           <a:ext cx="2276793" cy="562053"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>419100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>181569</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>133</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="그림 7" descr="화면 캡처"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9277350" y="723900"/>
-          <a:ext cx="4258269" cy="952633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>933727</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2" descr="화면 캡처"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7038975" y="3219450"/>
-          <a:ext cx="4296375" cy="1981477"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,16 +1286,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="40" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="56.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="67.25" style="3" customWidth="1"/>
+    <col min="3" max="4" width="43.875" style="3" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1405,31 +1309,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="48" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" ht="36" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="60" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="36" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1440,7 +1344,7 @@
     </row>
     <row r="6" spans="2:4" ht="48" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1458,89 +1362,89 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" ht="60" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:4" ht="108" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:4" ht="84" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="48" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="84" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" ht="60" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="120" x14ac:dyDescent="0.3">
-      <c r="B11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="96" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    </row>
+    <row r="15" spans="2:4" ht="48" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="84" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="252" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="84" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>